--- a/biology/Zoologie/Jason_E._Bond/Jason_E._Bond.xlsx
+++ b/biology/Zoologie/Jason_E._Bond/Jason_E._Bond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jason E. Bond est professeur d'entomologie américain et titulaire de la chaire Schlinger de systématique des insectes à l'université de Californie à Davis. Il est auparavant professeur de biologie, directeur du département des sciences biologiques et directeur du musée d'histoire naturelle de l'université d'Auburn à l'université d'Auburn[1]. Lorsqu'il est professeur agrégé au Département de biologie de l'East Carolina University, il découvre l'araignée Myrmekiaphila neilyoungi et de nombreuses autres espèces du genre Aptostichus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jason E. Bond est professeur d'entomologie américain et titulaire de la chaire Schlinger de systématique des insectes à l'université de Californie à Davis. Il est auparavant professeur de biologie, directeur du département des sciences biologiques et directeur du musée d'histoire naturelle de l'université d'Auburn à l'université d'Auburn. Lorsqu'il est professeur agrégé au Département de biologie de l'East Carolina University, il découvre l'araignée Myrmekiaphila neilyoungi et de nombreuses autres espèces du genre Aptostichus.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, il va à l'école de premier cycle à l'université Western Carolina, se spécialisant en biologie. Il poursuit sa maîtrise en biologie (1995) et son doctorat en systématique évolutive et génétique (1999) de Virginia Tech[1].
-Le 6 août 2008, Bond apparait dans The Colbert Report, où il nomme l'araignée Aptostichus stephencolberti d'après l'hôte Stephen Colbert[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, il va à l'école de premier cycle à l'université Western Carolina, se spécialisant en biologie. Il poursuit sa maîtrise en biologie (1995) et son doctorat en systématique évolutive et génétique (1999) de Virginia Tech.
+Le 6 août 2008, Bond apparait dans The Colbert Report, où il nomme l'araignée Aptostichus stephencolberti d'après l'hôte Stephen Colbert,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nesticus bondi Hedin &amp; Milne, 2023</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antrodiaetus microunicolor (Hendrixson &amp; Bond, 2005)
